--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Дата</t>
   </si>
@@ -59,14 +59,40 @@
     <t>Проработать методы строк</t>
   </si>
   <si>
-    <t>Event Loop проработать.
-Калькулятор   допилить.
-Вопросы с видеособесов проработать.
-Упражнения с объектами.
-Изучить .this в функциях и вообще</t>
-  </si>
-  <si>
     <t>Отработать fetch, async/await</t>
+  </si>
+  <si>
+    <t>Изучить .this в функциях и вообще</t>
+  </si>
+  <si>
+    <t>Вопросы с видеособесов проработать.</t>
+  </si>
+  <si>
+    <t>Калькулятор   допилить.</t>
+  </si>
+  <si>
+    <t>Видеоурок ООП. Упражнение с Event Loop. Упражнение и видос о Рекурсии.</t>
+  </si>
+  <si>
+    <t>Рекурсию доделать.</t>
+  </si>
+  <si>
+    <t>ООП сделать упражн.</t>
+  </si>
+  <si>
+    <t>Event Loop доделать упр.</t>
+  </si>
+  <si>
+    <t>GRID - урок</t>
+  </si>
+  <si>
+    <t>урок GULP</t>
+  </si>
+  <si>
+    <t>Повторил Flex, упражнение. Несколько уроков по JS от Камасутры про калькулятор.   Длинный урок по GIT от Богдана 30%. Изменение CSS через JS</t>
+  </si>
+  <si>
+    <t>Даты в JS</t>
   </si>
 </sst>
 </file>
@@ -442,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,78 +517,182 @@
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44993</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Дата</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Даты в JS</t>
+  </si>
+  <si>
+    <t>Сверстал страницу wrike на SCSS по видеоуроку.</t>
+  </si>
+  <si>
+    <t>Getter Stter</t>
+  </si>
+  <si>
+    <t>Карта компетенций на Miro. Объекты и this</t>
+  </si>
+  <si>
+    <t>Регулярные выражения</t>
   </si>
 </sst>
 </file>
@@ -468,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,136 +550,148 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="4">
+        <v>44995</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="4">
+        <v>44996</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="6"/>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="6"/>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -693,6 +717,11 @@
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Дата</t>
   </si>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>Регулярные выражения</t>
+  </si>
+  <si>
+    <t>Марафон 55 - Урок 1 Галерея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марафон 55 - Урок 2 Drag&amp;Drop  +  еще похожий проект </t>
+  </si>
+  <si>
+    <t>Марафон 55 - Урок 3 Слайдер картинок</t>
+  </si>
+  <si>
+    <t>Сайт обновлял</t>
+  </si>
+  <si>
+    <t>Марафон 55 - Урок 4 Ховер доска</t>
+  </si>
+  <si>
+    <t>Марафон 55 - Урок 5 Игра</t>
+  </si>
+  <si>
+    <t>Ночью  файлы и проекты - в порядок</t>
   </si>
 </sst>
 </file>
@@ -480,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,160 +589,235 @@
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>44997</v>
+      </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44998</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44999</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44999</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45000</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45002</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45003</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45004</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>Дата</t>
   </si>
@@ -126,13 +126,136 @@
   </si>
   <si>
     <t>Ночью  файлы и проекты - в порядок</t>
+  </si>
+  <si>
+    <t>Практика JavaScript - Владилен Минин</t>
+  </si>
+  <si>
+    <t>Модальное окно JS. События, Прототипы, Замыкания. Урок 2</t>
+  </si>
+  <si>
+    <t>Модальное окно на ЧИСТОМ JS + CSS. Урок 1</t>
+  </si>
+  <si>
+    <t>Модальное окно JS. Promise, Делегирование событий. Урок 3</t>
+  </si>
+  <si>
+    <t>Пишем приложение на голом JS с авторизацией без фреймворков</t>
+  </si>
+  <si>
+    <t>Загрузка файлов на CSS и JS с нуля. JavaScript практика</t>
+  </si>
+  <si>
+    <t>Сложный JavaScript простым языком - Владилен Минин</t>
+  </si>
+  <si>
+    <t>Прослушка в дороге на работу Антона Назарова - 2 работы</t>
+  </si>
+  <si>
+    <t>App Question Владилена начал - webpack ставил и настраивал</t>
+  </si>
+  <si>
+    <t>App Question Владилена начал - сделал</t>
+  </si>
+  <si>
+    <t>Модальное окно ч1 Владилена - начало</t>
+  </si>
+  <si>
+    <t>работа, не занимался - прослушка Владилена</t>
+  </si>
+  <si>
+    <t>REST API - что это? Создаем API с нуля на Express</t>
+  </si>
+  <si>
+    <t>Владилен Минин - другие уроки</t>
+  </si>
+  <si>
+    <t>«Змейка» на JavaScript для новичков | Урок 1 | Академия вёрстки</t>
+  </si>
+  <si>
+    <t>ООП JavaScript  -WebDev с нуля. Канал Алекса Лущенко</t>
+  </si>
+  <si>
+    <t>Асинхронность и Запросы</t>
+  </si>
+  <si>
+    <t>Решение задач на СОБЕСЕДОВАНИЕ. Практический курс. Junior/Middle</t>
+  </si>
+  <si>
+    <t>работа, не занимался - прослушка Владилена Задачи на собесах</t>
+  </si>
+  <si>
+    <t>работа, не занимался - прослушка Владилена  о Local Storage</t>
+  </si>
+  <si>
+    <t>ФП (каррирование, чистые функции)</t>
+  </si>
+  <si>
+    <t>Чудовищно функциональный JavaScript</t>
+  </si>
+  <si>
+    <t>Практика JavaScript с нуля за 2 часа. Сделаем целый сайт!</t>
+  </si>
+  <si>
+    <t>Игра Динозаврик</t>
+  </si>
+  <si>
+    <t>App Modal 1 Владилена начал - сделал</t>
+  </si>
+  <si>
+    <t>Замыкание функций</t>
+  </si>
+  <si>
+    <t>Callback</t>
+  </si>
+  <si>
+    <t>Глобальные объекты</t>
+  </si>
+  <si>
+    <t>Вставить карты в веб-страницу</t>
+  </si>
+  <si>
+    <t>Упражнение с объектом (ООП)</t>
+  </si>
+  <si>
+    <t>Упражнение с запросами XHR (XMLHttpRequest)</t>
+  </si>
+  <si>
+    <t>Урок запросов AJAX (XHR)</t>
+  </si>
+  <si>
+    <t>смотрел ролики собеседований, про замыкание, всплытие</t>
+  </si>
+  <si>
+    <t>работа - демонтаж</t>
+  </si>
+  <si>
+    <t>ремонт авто</t>
+  </si>
+  <si>
+    <t>асики, грэс</t>
+  </si>
+  <si>
+    <t>работа - демонтаж + Собеседование в Демозитарий</t>
+  </si>
+  <si>
+    <t>Callback - повторение, ролики собеседований</t>
+  </si>
+  <si>
+    <t>Ролики собеседований</t>
+  </si>
+  <si>
+    <t>Талгар - установка водорода</t>
+  </si>
+  <si>
+    <t>Ролики про задачи и вопросы собесов, про Замыкание. Упраж. Массивы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +263,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -176,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,12 +355,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,9 +687,10 @@
     <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44990</v>
       </c>
@@ -534,7 +710,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44991</v>
       </c>
@@ -543,7 +719,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44992</v>
       </c>
@@ -552,7 +728,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44993</v>
       </c>
@@ -561,7 +737,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44994</v>
       </c>
@@ -570,7 +746,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44995</v>
       </c>
@@ -579,7 +755,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44996</v>
       </c>
@@ -588,14 +764,14 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44997</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44998</v>
       </c>
@@ -604,7 +780,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44999</v>
       </c>
@@ -613,7 +789,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44999</v>
       </c>
@@ -621,8 +797,11 @@
         <v>30</v>
       </c>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45000</v>
       </c>
@@ -630,13 +809,16 @@
         <v>31</v>
       </c>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45002</v>
       </c>
@@ -645,7 +827,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45003</v>
       </c>
@@ -654,7 +836,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45004</v>
       </c>
@@ -662,165 +844,442 @@
         <v>34</v>
       </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="D17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f>A17+1</f>
+        <v>45005</v>
+      </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" ref="A19:A53" si="0">A18+1</f>
+        <v>45006</v>
+      </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>45007</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>45008</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
+      <c r="D21" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>45009</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>45010</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>45011</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>45012</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>45013</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>45014</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>45015</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3" t="s">
+      <c r="D28" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>45016</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>45018</v>
+      </c>
       <c r="B31" s="6"/>
       <c r="C31" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>45019</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>45020</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
+      <c r="D33" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>45021</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>45022</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="6"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>45023</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>45024</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>45025</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>45026</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="6"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>45027</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="6"/>
+      <c r="D40" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>45028</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="C41" s="3"/>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>45029</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>45030</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>45031</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>45032</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>45033</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>45034</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>45035</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>45036</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>45037</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>45038</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>45039</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>45040</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Дата</t>
   </si>
@@ -236,9 +236,6 @@
     <t>асики, грэс</t>
   </si>
   <si>
-    <t>работа - демонтаж + Собеседование в Демозитарий</t>
-  </si>
-  <si>
     <t>Callback - повторение, ролики собеседований</t>
   </si>
   <si>
@@ -249,6 +246,18 @@
   </si>
   <si>
     <t>Ролики про задачи и вопросы собесов, про Замыкание. Упраж. Массивы</t>
+  </si>
+  <si>
+    <t>Замыкание разобрал, старничку сделал, видосы про него</t>
+  </si>
+  <si>
+    <t>работа - демонтаж + Собеседование в Депозитарий</t>
+  </si>
+  <si>
+    <t>не занимался</t>
+  </si>
+  <si>
+    <t>упражнения с массивами, случайный цвет.</t>
   </si>
 </sst>
 </file>
@@ -272,7 +281,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +380,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1076,7 @@
         <v>45020</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>23</v>
@@ -1073,7 +1091,7 @@
         <v>45021</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>25</v>
@@ -1085,7 +1103,7 @@
         <v>45022</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>27</v>
@@ -1097,7 +1115,7 @@
         <v>45023</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>60</v>
@@ -1109,7 +1127,7 @@
         <v>45024</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>61</v>
@@ -1124,7 +1142,7 @@
         <v>45025</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>62</v>
@@ -1136,7 +1154,7 @@
         <v>45026</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -1158,8 +1176,8 @@
         <f t="shared" si="0"/>
         <v>45028</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>71</v>
+      <c r="B41" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" t="s">
@@ -1234,7 +1252,9 @@
         <f t="shared" si="0"/>
         <v>45035</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,7 +1262,9 @@
         <f t="shared" si="0"/>
         <v>45036</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,7 +1272,9 @@
         <f t="shared" si="0"/>
         <v>45037</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">

--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -233,9 +233,6 @@
     <t>ремонт авто</t>
   </si>
   <si>
-    <t>асики, грэс</t>
-  </si>
-  <si>
     <t>работа - демонтаж + Собеседование в Демозитарий</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>Ролики про задачи и вопросы собесов, про Замыкание. Упраж. Массивы</t>
+  </si>
+  <si>
+    <t>асики, грэс.   Ролики собесов</t>
   </si>
 </sst>
 </file>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
         <v>45020</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>23</v>
@@ -1073,7 +1073,7 @@
         <v>45021</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>25</v>
@@ -1085,7 +1085,7 @@
         <v>45022</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>27</v>
@@ -1097,7 +1097,7 @@
         <v>45023</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>60</v>
@@ -1109,7 +1109,7 @@
         <v>45024</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>61</v>
@@ -1124,7 +1124,7 @@
         <v>45025</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>62</v>
@@ -1136,7 +1136,7 @@
         <v>45026</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -1159,7 +1159,7 @@
         <v>45028</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" t="s">
@@ -1225,7 +1225,7 @@
         <v>45034</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C47" s="3"/>
     </row>

--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -697,7 +697,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>Дата</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">не занимался </t>
+  </si>
+  <si>
+    <t>Читаю про Event Loop, изучаю области видимости var let</t>
   </si>
 </sst>
 </file>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1285,9 @@
         <f t="shared" si="0"/>
         <v>45038</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">

--- a/Дневник_стажера.xlsx
+++ b/Дневник_стажера.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>Дата</t>
   </si>
@@ -261,6 +261,69 @@
   </si>
   <si>
     <t>Читаю про Event Loop, изучаю области видимости var let</t>
+  </si>
+  <si>
+    <t>видосы про промисы и асинки</t>
+  </si>
+  <si>
+    <t>грузили мебель</t>
+  </si>
+  <si>
+    <t>делал ящик водорода</t>
+  </si>
+  <si>
+    <t>ДР, Азамат встреча</t>
+  </si>
+  <si>
+    <t>полиция, Депозитарий - ТЗ на задачу учет невостребки</t>
+  </si>
+  <si>
+    <t>дом, полиция, концерт</t>
+  </si>
+  <si>
+    <t>аэропорт - Виктор, полиция, Депозитарий</t>
+  </si>
+  <si>
+    <t>мебель собирали у Наташи</t>
+  </si>
+  <si>
+    <t>Депозитарий - 1 день.</t>
+  </si>
+  <si>
+    <t>выезд/заезд на границе</t>
+  </si>
+  <si>
+    <t>дом, полиция, удаленно задача Депозитария</t>
+  </si>
+  <si>
+    <t>ЦД - работа. Уточнение задачи по Невостребке</t>
+  </si>
+  <si>
+    <t>ЦД - работа. Анализ данных. Формулировка задачи по Невостребке</t>
+  </si>
+  <si>
+    <t>ящик водорода - монтаж закончен, отверстия. Остались шланги и провода</t>
+  </si>
+  <si>
+    <t>полиция, Депозитарий, аэропорт Виктор Гуревич</t>
+  </si>
+  <si>
+    <t>ЦД - работа. Получение данных для задачи. Стоматолог.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦОН.  ЦД - работа. </t>
+  </si>
+  <si>
+    <t>ЦД - работа. Стоматолог</t>
+  </si>
+  <si>
+    <t>ГРЭС - очистка</t>
+  </si>
+  <si>
+    <t>отдых, бюджет побега</t>
+  </si>
+  <si>
+    <t>ЦД - работа. Мустафа встреча. Азамат встреча</t>
   </si>
 </sst>
 </file>
@@ -284,7 +347,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +384,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -349,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +457,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,8 +469,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFCCFF99"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
@@ -697,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,13 +951,13 @@
       <c r="C18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" ref="A19:A53" si="0">A18+1</f>
+        <f t="shared" ref="A19:A82" si="0">A18+1</f>
         <v>45006</v>
       </c>
       <c r="B19" s="6"/>
@@ -990,7 +1063,7 @@
       <c r="B26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1120,7 +1193,7 @@
       <c r="B36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1132,7 +1205,7 @@
       <c r="B37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -1295,7 +1368,9 @@
         <f t="shared" si="0"/>
         <v>45039</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,8 +1378,400 @@
         <f t="shared" si="0"/>
         <v>45040</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>45041</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>45042</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>45043</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>45044</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>45045</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>45046</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>45048</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>45049</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>45050</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>45051</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="0"/>
+        <v>45052</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="0"/>
+        <v>45053</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="0"/>
+        <v>45054</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="0"/>
+        <v>45055</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="0"/>
+        <v>45056</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="0"/>
+        <v>45057</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <f t="shared" si="0"/>
+        <v>45058</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="0"/>
+        <v>45059</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="0"/>
+        <v>45060</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="0"/>
+        <v>45061</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="0"/>
+        <v>45062</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="0"/>
+        <v>45063</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="0"/>
+        <v>45064</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <f t="shared" si="0"/>
+        <v>45065</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <f t="shared" si="0"/>
+        <v>45066</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <f t="shared" si="0"/>
+        <v>45067</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="0"/>
+        <v>45068</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="0"/>
+        <v>45069</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" ref="A83:A96" si="1">A82+1</f>
+        <v>45070</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="1"/>
+        <v>45071</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="1"/>
+        <v>45072</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="1"/>
+        <v>45073</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="1"/>
+        <v>45074</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="1"/>
+        <v>45075</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="1"/>
+        <v>45076</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="1"/>
+        <v>45077</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="1"/>
+        <v>45078</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="1"/>
+        <v>45079</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="1"/>
+        <v>45080</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="1"/>
+        <v>45081</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="1"/>
+        <v>45082</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f t="shared" si="1"/>
+        <v>45083</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
